--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Casper/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489A34C-F58C-3241-97EF-9F26014E6248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DB22DD-3691-4240-BAA3-3FAE769CEFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -466,15 +466,15 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="11" width="13.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -658,16 +658,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EAB414-4D8E-4715-81F5-BB9EBEC690BA}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -851,16 +851,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B16F35-1C91-4BD6-99C6-D356DCD5059C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="19.6640625" style="2" customWidth="1"/>
+    <col min="1" max="5" width="19.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -877,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>

--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DB22DD-3691-4240-BAA3-3FAE769CEFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A6F10-DBD7-41B8-BA13-8F750A7B4F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232040EA-1C6F-4E09-9B8C-FA16FAD3BE27}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -561,10 +561,10 @@
         <v>69</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -625,16 +625,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>69</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EAB414-4D8E-4715-81F5-BB9EBEC690BA}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,10 +719,10 @@
         <v>456</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -748,16 +748,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>123</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>69</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>

--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A6F10-DBD7-41B8-BA13-8F750A7B4F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D39D125-2B4D-4365-95A0-21B5A1BF2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>

--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D39D125-2B4D-4365-95A0-21B5A1BF2D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306BD68B-A94C-406A-96B4-D9864A36AED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
+    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>70</v>

--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306BD68B-A94C-406A-96B4-D9864A36AED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8890494A-4B27-4457-9DB6-EA34BEC42D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
@@ -112,13 +112,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,13 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232040EA-1C6F-4E09-9B8C-FA16FAD3BE27}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1658502098</v>
       </c>
       <c r="J2" s="1">
         <v>200</v>
@@ -648,6 +656,9 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8890494A-4B27-4457-9DB6-EA34BEC42D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65028E32-C3AC-48A5-844C-2749831FEA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1658502098</v>
+        <v>1758502098</v>
       </c>
       <c r="J2" s="1">
         <v>200</v>

--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65028E32-C3AC-48A5-844C-2749831FEA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B72A01-EF17-48F1-AAD8-91CE087BF6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>username</t>
   </si>
@@ -106,24 +106,67 @@
   </si>
   <si>
     <t>DANIEL LIM</t>
+  </si>
+  <si>
+    <t>Jobeet</t>
+  </si>
+  <si>
+    <t>JOANNE</t>
+  </si>
+  <si>
+    <t>kelsykoh</t>
+  </si>
+  <si>
+    <t>KELSY KOH</t>
+  </si>
+  <si>
+    <t>jodytng</t>
+  </si>
+  <si>
+    <t>JODY TNG</t>
+  </si>
+  <si>
+    <t>keziakhoo</t>
+  </si>
+  <si>
+    <t>itsyelsew</t>
+  </si>
+  <si>
+    <t>kelsomebody</t>
+  </si>
+  <si>
+    <t>buttermebuns</t>
+  </si>
+  <si>
+    <t>jacindatsen</t>
+  </si>
+  <si>
+    <t>KEZIA KHOO</t>
+  </si>
+  <si>
+    <t>WESLEY</t>
+  </si>
+  <si>
+    <t>KELVIN CHAN</t>
+  </si>
+  <si>
+    <t>JASMOND TAN</t>
+  </si>
+  <si>
+    <t>JACINDA TSEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,16 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232040EA-1C6F-4E09-9B8C-FA16FAD3BE27}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,8 +697,285 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C8" s="3"/>
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B72A01-EF17-48F1-AAD8-91CE087BF6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D82DFE-455B-4963-9BD1-A0CE244FF0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>username</t>
   </si>
@@ -120,40 +120,58 @@
     <t>KELSY KOH</t>
   </si>
   <si>
-    <t>jodytng</t>
-  </si>
-  <si>
-    <t>JODY TNG</t>
-  </si>
-  <si>
     <t>keziakhoo</t>
   </si>
   <si>
-    <t>itsyelsew</t>
-  </si>
-  <si>
-    <t>kelsomebody</t>
-  </si>
-  <si>
     <t>buttermebuns</t>
   </si>
   <si>
-    <t>jacindatsen</t>
-  </si>
-  <si>
     <t>KEZIA KHOO</t>
   </si>
   <si>
-    <t>WESLEY</t>
-  </si>
-  <si>
-    <t>KELVIN CHAN</t>
-  </si>
-  <si>
     <t>JASMOND TAN</t>
   </si>
   <si>
-    <t>JACINDA TSEN</t>
+    <t>LIAN KIT</t>
+  </si>
+  <si>
+    <t>SHAO YONG</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>PRICILLA</t>
+  </si>
+  <si>
+    <t>JIAWEI</t>
+  </si>
+  <si>
+    <t>CHARLOTTE</t>
+  </si>
+  <si>
+    <t>LianKit</t>
+  </si>
+  <si>
+    <t>ongsy</t>
+  </si>
+  <si>
+    <t>marc00s</t>
+  </si>
+  <si>
+    <t>poofingfudges</t>
+  </si>
+  <si>
+    <t>itsraininggg</t>
+  </si>
+  <si>
+    <t>itscharlottelah</t>
+  </si>
+  <si>
+    <t>Beeyyekem</t>
+  </si>
+  <si>
+    <t>BECK</t>
   </si>
 </sst>
 </file>
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232040EA-1C6F-4E09-9B8C-FA16FAD3BE27}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -583,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1758502098</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -606,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -638,10 +656,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -650,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -670,19 +688,19 @@
         <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -705,7 +723,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -740,7 +758,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -772,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -804,13 +822,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -839,10 +857,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -874,13 +892,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -909,10 +927,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -944,13 +962,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -974,6 +992,111 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -984,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EAB414-4D8E-4715-81F5-BB9EBEC690BA}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1044,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -1076,16 +1199,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1108,19 +1231,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1143,30 +1266,415 @@
         <v>22</v>
       </c>
       <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1179,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B16F35-1C91-4BD6-99C6-D356DCD5059C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1210,13 +1718,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>6969</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1227,13 +1735,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1244,13 +1752,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>12567</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1261,13 +1769,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>69123</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>

--- a/excel/shanRoyale2022Data1.xlsx
+++ b/excel/shanRoyale2022Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\Desktop\tech-projects\medium-projects\telegram-bot\shan-royale-2022\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D82DFE-455B-4963-9BD1-A0CE244FF0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD132D4-73E4-4892-BD93-BBAE1E7F78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{052D59D5-69DE-493C-8002-AE6F997C54F8}"/>
   </bookViews>
   <sheets>
     <sheet name="playerDataRound1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>username</t>
   </si>
@@ -172,6 +172,30 @@
   </si>
   <si>
     <t>BECK</t>
+  </si>
+  <si>
+    <t>itsyelsew</t>
+  </si>
+  <si>
+    <t>WESLEY</t>
+  </si>
+  <si>
+    <t>jodytng</t>
+  </si>
+  <si>
+    <t>JODY TNG</t>
+  </si>
+  <si>
+    <t>kelsomebody</t>
+  </si>
+  <si>
+    <t>KELVIN CHAN</t>
+  </si>
+  <si>
+    <t>jacindatsen</t>
+  </si>
+  <si>
+    <t>JACINDA TSEN</t>
   </si>
 </sst>
 </file>
@@ -529,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232040EA-1C6F-4E09-9B8C-FA16FAD3BE27}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,13 +671,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -682,13 +706,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -717,13 +741,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -752,13 +776,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -787,13 +811,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -891,14 +915,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
+      <c r="A11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -926,14 +950,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -962,13 +986,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -997,13 +1021,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1032,13 +1056,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1066,37 +1090,177 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1107,15 +1271,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EAB414-4D8E-4715-81F5-BB9EBEC690BA}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1225,13 +1390,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1260,13 +1425,13 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1295,13 +1460,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1330,13 +1495,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1365,13 +1530,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1469,14 +1634,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
+      <c r="A11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1504,14 +1669,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
+      <c r="A12" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1540,13 +1705,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1575,13 +1740,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1610,13 +1775,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1644,41 +1809,184 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
+    <sortCondition ref="C2:C20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1688,7 +1996,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
